--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44553</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43993</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44790</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>44844</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43833</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44046</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44837</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44182</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43826</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44182</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44680</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44774</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43685</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43739</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43756</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44553</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45082</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44377</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44553</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44925</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43525</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44553</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44650</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45007</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43685</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44242</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44979</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43606</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44517</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43795</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44294</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44977</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45007</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>45107</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43664</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44172</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44180</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44475</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44690</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44713</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44853</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44874</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44955</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43461</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43558</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>43655</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43857</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43979</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44053</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44113</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44321</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44406</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44650</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44659</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44830</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44837</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44873</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>43340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43360</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43364</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43369</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>43383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>43389</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43392</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43396</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>43399</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43402</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43404</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>43406</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>43416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43419</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43420</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43423</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43427</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43431</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43437</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43438</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43439</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>43440</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>43445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43451</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43453</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>43454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>43461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>43469</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43474</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43475</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>43479</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43486</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43488</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43489</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43490</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43495</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43497</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43500</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43507</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43508</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>43510</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>43522</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43525</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43528</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43535</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43539</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43542</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>43543</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>43544</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>43553</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43559</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43560</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43563</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43567</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>43571</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43577</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>43578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43598</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>43601</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43605</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43606</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43609</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43612</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>43619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>43620</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>43623</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>43626</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43633</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43647</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>43648</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>43651</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43658</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43661</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43662</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43684</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43694</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43705</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43707</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>43713</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>43717</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>43718</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>43720</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>43731</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43735</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>43736</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>43739</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>43745</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>43747</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43748</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>43752</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43756</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43759</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>43762</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>43769</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>43770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>43775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43776</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>43780</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43782</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>43787</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>43788</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>43790</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43794</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43798</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>43804</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>43808</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>43810</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>43815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23040,7 +23040,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43816</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>43817</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>43833</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>43846</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>43858</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>43866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>43867</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43871</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>43874</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>43875</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>43878</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>43879</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>43880</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43894</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>43895</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>43896</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>43900</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>43907</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>43914</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>43920</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24996,7 +24996,7 @@
         <v>43921</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>43927</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>43930</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>43935</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>43937</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>43949</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>43956</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>43964</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>43966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>43969</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>43972</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>43973</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>43980</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>43984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>43994</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>43999</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44004</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44011</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44012</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44014</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44021</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44025</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44026</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>44029</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44039</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44040</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44042</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>44050</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>44053</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>44056</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44057</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44060</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44082</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>44084</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44088</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44091</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44092</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44096</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>44105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>44107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44108</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44109</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44127</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>44132</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44133</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44139</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29379,7 +29379,7 @@
         <v>44148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>44151</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>44153</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44155</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44166</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44169</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44179</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>44180</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>44182</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>44183</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>44188</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32280,7 +32280,7 @@
         <v>44207</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44208</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>44209</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44214</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44216</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44218</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44225</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44228</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44229</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44230</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44231</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>44238</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>44239</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>44242</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>44251</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44258</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44270</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>44278</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44280</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44285</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44286</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44298</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>44300</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44305</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44312</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>44314</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44316</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>44319</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44320</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44322</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44325</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44342</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44343</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44344</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44348</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44356</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>44357</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44361</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44364</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>44365</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>44368</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44376</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
         <v>44377</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>44381</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>44384</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>44385</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36913,7 +36913,7 @@
         <v>44389</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36975,7 +36975,7 @@
         <v>44396</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37032,7 +37032,7 @@
         <v>44403</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37089,7 +37089,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
         <v>44404</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44405</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>44406</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>44413</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>44414</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>44417</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>44418</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37731,7 +37731,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>44421</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44423</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>44424</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44430</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>44435</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         <v>44440</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38606,7 +38606,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>44441</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44442</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>44447</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>44449</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>44452</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39144,7 +39144,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44470</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44472</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44473</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44475</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40537,7 +40537,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40879,7 +40879,7 @@
         <v>44483</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40936,7 +40936,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>44488</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44494</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>44497</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41169,7 +41169,7 @@
         <v>44500</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44501</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41350,7 +41350,7 @@
         <v>44508</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41412,7 +41412,7 @@
         <v>44531</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41469,7 +41469,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41526,7 +41526,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44538</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>44540</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41888,7 +41888,7 @@
         <v>44543</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41945,7 +41945,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42007,7 +42007,7 @@
         <v>44544</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42069,7 +42069,7 @@
         <v>44545</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44552</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>44565</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>44566</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42317,7 +42317,7 @@
         <v>44571</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42374,7 +42374,7 @@
         <v>44581</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42431,7 +42431,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42488,7 +42488,7 @@
         <v>44585</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42545,7 +42545,7 @@
         <v>44600</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42602,7 +42602,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42659,7 +42659,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>44603</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42778,7 +42778,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42902,7 +42902,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>44613</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43207,7 +43207,7 @@
         <v>44615</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>44631</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>44642</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>44650</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>44655</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>44659</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>44662</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43755,7 +43755,7 @@
         <v>44663</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43812,7 +43812,7 @@
         <v>44664</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43869,7 +43869,7 @@
         <v>44665</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43926,7 +43926,7 @@
         <v>44677</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44340,7 +44340,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44459,7 +44459,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44521,7 +44521,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44578,7 +44578,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44702,7 +44702,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44759,7 +44759,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44816,7 +44816,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44878,7 +44878,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44940,7 +44940,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44997,7 +44997,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45178,7 +45178,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45240,7 +45240,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45302,7 +45302,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45364,7 +45364,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45736,7 +45736,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46093,7 +46093,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46155,7 +46155,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46331,7 +46331,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47226,7 +47226,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47288,7 +47288,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47345,7 +47345,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47407,7 +47407,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47464,7 +47464,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47526,7 +47526,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47583,7 +47583,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47640,7 +47640,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47702,7 +47702,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47759,7 +47759,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47816,7 +47816,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47878,7 +47878,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47940,7 +47940,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48059,7 +48059,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48121,7 +48121,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48178,7 +48178,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48478,7 +48478,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48535,7 +48535,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48654,7 +48654,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48716,7 +48716,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48773,7 +48773,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48954,7 +48954,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49249,7 +49249,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49559,7 +49559,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49621,7 +49621,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50283,7 +50283,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50402,7 +50402,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50464,7 +50464,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50640,7 +50640,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50764,7 +50764,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50826,7 +50826,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50888,7 +50888,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50950,7 +50950,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51012,7 +51012,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51074,7 +51074,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51136,7 +51136,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51198,7 +51198,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51255,7 +51255,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51312,7 +51312,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51369,7 +51369,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51488,7 +51488,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51545,7 +51545,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51602,7 +51602,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51716,7 +51716,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51773,7 +51773,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51830,7 +51830,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51887,7 +51887,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51944,7 +51944,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52001,7 +52001,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52063,7 +52063,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52120,7 +52120,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52177,7 +52177,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52234,7 +52234,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52348,7 +52348,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52410,7 +52410,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52472,7 +52472,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52534,7 +52534,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52591,7 +52591,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52648,7 +52648,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52710,7 +52710,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52792,7 +52792,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52849,7 +52849,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52906,7 +52906,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52963,7 +52963,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53139,7 +53139,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53315,7 +53315,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53377,7 +53377,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53434,7 +53434,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53491,7 +53491,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53548,7 +53548,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53610,7 +53610,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53672,7 +53672,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53734,7 +53734,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53796,7 +53796,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53858,7 +53858,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54039,7 +54039,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54101,7 +54101,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54225,7 +54225,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54287,7 +54287,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54344,7 +54344,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54406,7 +54406,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54463,7 +54463,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54525,7 +54525,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54582,7 +54582,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54644,7 +54644,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54758,7 +54758,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54815,7 +54815,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54877,7 +54877,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54939,7 +54939,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44553</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43993</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44790</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>44844</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43833</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44046</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44837</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44182</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43826</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44182</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44680</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44774</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43685</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43739</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43756</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44200</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44553</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45082</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44377</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44553</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44925</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43525</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43644</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44553</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44650</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45007</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43685</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44242</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44979</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43606</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44517</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43795</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44294</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44690</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29471,7 +29471,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33882,7 +33882,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34053,7 +34053,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34110,7 +34110,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34400,7 +34400,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34856,7 +34856,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36068,7 +36068,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36544,7 +36544,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37999,7 +37999,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38170,7 +38170,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38227,7 +38227,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38341,7 +38341,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39060,7 +39060,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39774,7 +39774,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39831,7 +39831,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39888,7 +39888,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39945,7 +39945,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40002,7 +40002,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41204,7 +41204,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41261,7 +41261,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41856,7 +41856,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41980,7 +41980,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42099,7 +42099,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42409,7 +42409,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42580,7 +42580,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42637,7 +42637,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42994,7 +42994,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43423,7 +43423,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43485,7 +43485,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43547,7 +43547,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43728,7 +43728,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43785,7 +43785,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43904,7 +43904,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44670,7 +44670,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44846,7 +44846,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45580,7 +45580,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45947,7 +45947,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46061,7 +46061,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46123,7 +46123,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46304,7 +46304,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46361,7 +46361,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46423,7 +46423,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46599,7 +46599,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46661,7 +46661,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47070,7 +47070,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47132,7 +47132,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47375,7 +47375,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47437,7 +47437,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47494,7 +47494,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47556,7 +47556,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47613,7 +47613,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47670,7 +47670,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47908,7 +47908,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47970,7 +47970,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48027,7 +48027,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48089,7 +48089,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48270,7 +48270,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48327,7 +48327,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48389,7 +48389,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48803,7 +48803,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48865,7 +48865,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48922,7 +48922,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48984,7 +48984,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49041,7 +49041,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49103,7 +49103,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49418,7 +49418,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49475,7 +49475,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49532,7 +49532,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49589,7 +49589,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49651,7 +49651,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49713,7 +49713,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49770,7 +49770,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49832,7 +49832,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49889,7 +49889,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49951,7 +49951,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50075,7 +50075,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50256,7 +50256,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50313,7 +50313,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50370,7 +50370,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50432,7 +50432,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50494,7 +50494,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50556,7 +50556,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50613,7 +50613,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50670,7 +50670,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50732,7 +50732,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50794,7 +50794,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50856,7 +50856,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51166,7 +51166,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51228,7 +51228,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51285,7 +51285,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51399,7 +51399,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51461,7 +51461,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52093,7 +52093,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52207,7 +52207,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52621,7 +52621,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52822,7 +52822,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52879,7 +52879,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52936,7 +52936,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53050,7 +53050,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53107,7 +53107,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53169,7 +53169,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53226,7 +53226,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53640,7 +53640,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53702,7 +53702,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53888,7 +53888,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53950,7 +53950,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54007,7 +54007,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54069,7 +54069,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54131,7 +54131,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54255,7 +54255,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54317,7 +54317,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54374,7 +54374,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54436,7 +54436,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54493,7 +54493,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54555,7 +54555,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54612,7 +54612,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54674,7 +54674,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54731,7 +54731,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54788,7 +54788,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54845,7 +54845,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54907,7 +54907,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54969,7 +54969,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y850"/>
+  <dimension ref="A1:Y851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55036,7 +55036,7 @@
       </c>
       <c r="R849" s="2" t="inlineStr"/>
     </row>
-    <row r="850">
+    <row r="850" ht="15" customHeight="1">
       <c r="A850" t="inlineStr">
         <is>
           <t>A 40573-2023</t>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55097,6 +55097,63 @@
         <v>0</v>
       </c>
       <c r="R850" s="2" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>A 42444-2023</t>
+        </is>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C851" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>HÄRJEDALEN</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="n">
+        <v>0</v>
+      </c>
+      <c r="J851" t="n">
+        <v>0</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N851" t="n">
+        <v>0</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R851" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y851"/>
+  <dimension ref="A1:Y852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
       </c>
       <c r="R850" s="2" t="inlineStr"/>
     </row>
-    <row r="851">
+    <row r="851" ht="15" customHeight="1">
       <c r="A851" t="inlineStr">
         <is>
           <t>A 42444-2023</t>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55154,6 +55154,68 @@
         <v>0</v>
       </c>
       <c r="R851" s="2" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>A 45999-2023</t>
+        </is>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C852" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>HÄRJEDALEN</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G852" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="n">
+        <v>0</v>
+      </c>
+      <c r="J852" t="n">
+        <v>0</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N852" t="n">
+        <v>0</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R852" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45196</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44928</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43340</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43364</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>43371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>43383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>43389</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>43390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43392</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43402</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43404</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43406</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43416</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43418</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43418</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43419</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43420</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>43420</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>43423</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>43426</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>43426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>43426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>43427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43431</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43440</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43453</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>43454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>43454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43469</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43474</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43474</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>43474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>43475</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>43482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>43482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>43483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43486</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>43486</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>43489</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43490</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43495</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43495</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43497</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43500</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43500</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>43500</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>43500</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43500</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43500</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43507</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>43508</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43522</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43522</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43525</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43525</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>43528</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43528</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43535</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43542</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43543</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43553</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43557</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43557</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43559</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43560</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43563</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>43571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>43571</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>43577</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>43578</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>43579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43588</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>43598</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43601</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43605</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43606</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43609</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43612</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43612</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>43620</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>43623</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>43626</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>43629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43633</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43647</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43651</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>43658</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43661</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>43662</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>43684</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>43689</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>43689</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>43694</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>43705</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43705</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>43707</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>43707</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>43713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43717</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43717</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43718</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43718</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43720</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43731</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43731</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43736</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43739</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>43739</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>43745</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>43747</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>43747</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>43748</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>43752</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>43756</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>43756</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>43756</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>43756</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43759</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43759</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43759</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>43762</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>43769</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>43770</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>43775</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>43776</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>43780</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>43782</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>43782</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>43787</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43788</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43790</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43794</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43798</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>43804</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>43808</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43810</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>43815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>43815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>43815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>43815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>43815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>43815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>43815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>43815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>43815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>43815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>43815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43816</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>43816</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43817</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43846</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>43858</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>43866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>43866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>43866</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>43867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>43867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>43871</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>43874</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>43875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>43878</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>43879</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>43880</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>43894</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>43894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>43894</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>43894</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>43894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>43894</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>43895</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>43896</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>43896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>43896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>43900</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>43907</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>43914</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>43927</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>43930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>43930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>43935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>43935</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>43937</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>43949</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>43956</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>43964</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>43966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>43966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>43969</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>43972</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43973</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43980</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43994</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>43999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44004</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44004</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44011</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44011</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>44011</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44012</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44014</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44014</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>44021</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44025</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>44025</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>44026</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44029</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44036</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44039</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44039</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44040</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44042</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44043</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44050</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44053</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44057</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44060</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44075</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44082</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44084</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44088</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44091</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44091</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44096</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44102</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44105</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44108</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44109</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44126</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44126</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44126</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44127</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44132</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44133</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44151</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44153</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44153</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44153</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44154</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44155</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44166</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44167</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44167</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44169</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44174</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44180</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44180</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44180</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44180</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>44180</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44181</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>44181</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44181</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44181</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44181</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44181</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44181</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>44181</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44181</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44181</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44182</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44182</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>44182</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44182</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44182</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44183</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44188</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44188</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44207</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44208</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>44209</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44209</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44209</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44214</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44216</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44218</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44225</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44225</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44228</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44228</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44229</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44230</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44231</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44238</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44238</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>44238</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44238</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>44238</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>44238</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44239</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44242</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44258</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44258</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44278</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44280</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44285</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44285</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44285</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44286</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44286</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44298</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44300</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44305</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44312</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>44312</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>44312</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>44314</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>44314</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44316</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44316</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44316</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44316</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>44316</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44316</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44316</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44316</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44316</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44319</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44320</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44320</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44325</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>44342</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>44343</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44344</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44348</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44356</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44357</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44361</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>44361</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44361</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44361</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44361</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44364</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44364</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44365</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44368</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44376</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44377</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44381</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44384</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44385</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44389</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44396</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44403</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44403</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44404</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44404</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44405</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44406</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>44413</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>44414</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>44414</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>44417</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>44417</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44418</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>44418</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44418</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>44421</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>44423</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>44423</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>44423</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>44424</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44424</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44424</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44424</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44430</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44435</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>44440</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>44440</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44440</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44440</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44441</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44442</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44447</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44449</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>44449</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>44449</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>44452</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44452</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>44452</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44452</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>44470</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44470</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44472</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>44473</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>44473</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>44475</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44475</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44475</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44475</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>44475</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44475</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>44475</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>44475</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>44475</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>44475</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>44475</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>44475</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>44475</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>44475</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>44475</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44475</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44475</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44475</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44475</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44475</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44475</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44475</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44483</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>44483</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>44488</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41162,7 +41162,7 @@
         <v>44494</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>44497</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>44500</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>44501</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>44501</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>44508</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44531</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44531</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>44531</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>44531</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>44538</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>44538</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44538</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>44540</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>44543</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>44543</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>44544</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>44545</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>44565</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44566</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44571</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>44581</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>44585</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42652,7 +42652,7 @@
         <v>44600</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44600</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42766,7 +42766,7 @@
         <v>44600</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>44603</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44603</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44603</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44603</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>44610</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>44613</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>44614</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>44615</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>44642</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44650</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44659</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44662</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44663</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44664</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44665</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44683</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44683</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44683</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44684</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44690</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44698</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44708</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44719</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44722</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44725</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44726</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44726</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44728</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>44732</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44732</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44732</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>44732</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>44733</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>44733</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>44741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44742</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>44753</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>44763</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>44784</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44790</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44790</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44790</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>44792</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44792</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45905,7 +45905,7 @@
         <v>44795</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>44803</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>44803</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>44810</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44810</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>44810</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>44818</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>44818</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>44820</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>44823</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>44825</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>44825</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>44826</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>44826</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>44827</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>44827</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>44827</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>44827</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44831</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>44831</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>44832</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>44833</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>44834</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44838</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44838</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44841</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>44854</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>44854</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47628,7 +47628,7 @@
         <v>44858</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47685,7 +47685,7 @@
         <v>44859</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>44861</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>44861</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>44862</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>44862</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>44872</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>44872</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>44872</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44873</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44874</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>44879</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>44881</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>44881</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>44882</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>44883</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44883</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         <v>44886</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>44886</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>44889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48818,7 +48818,7 @@
         <v>44893</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>44894</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>44901</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>44908</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>44909</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>44911</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>44914</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44914</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>44914</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>44916</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>44925</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>44925</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>44925</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>44925</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49847,7 +49847,7 @@
         <v>44925</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49904,7 +49904,7 @@
         <v>44925</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>44928</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
         <v>44928</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50090,7 +50090,7 @@
         <v>44928</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>44928</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>44945</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44946</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>44953</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>44957</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>44957</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>44958</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44964</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44964</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>44985</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>44985</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>44985</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         <v>44985</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44987</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>44987</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>44994</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>44998</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>45001</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>45012</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45020</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45034</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>45034</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>45034</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45034</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>45034</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45034</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45034</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45035</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45035</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52108,7 +52108,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52165,7 +52165,7 @@
         <v>45041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52222,7 +52222,7 @@
         <v>45041</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52279,7 +52279,7 @@
         <v>45041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52336,7 +52336,7 @@
         <v>45043</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52393,7 +52393,7 @@
         <v>45044</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52455,7 +52455,7 @@
         <v>45050</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45054</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52636,7 +52636,7 @@
         <v>45055</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45056</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45057</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45063</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45063</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45063</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45071</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45071</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45076</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45078</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53717,7 +53717,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53779,7 +53779,7 @@
         <v>45082</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45084</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54022,7 +54022,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54084,7 +54084,7 @@
         <v>45097</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45104</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45105</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>45106</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45107</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>45111</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45113</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45114</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45117</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45119</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45147</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45154</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45159</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45159</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45159</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45180</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45196</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>

--- a/Översikt HÄRJEDALEN.xlsx
+++ b/Översikt HÄRJEDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>44407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44790</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43833</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44046</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44749</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44837</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44182</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43826</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44831</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44650</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43776</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44193</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44680</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>44182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44256</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44053</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45106</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44406</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44690</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44774</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43685</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43739</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43756</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>44200</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44553</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43525</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43644</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44553</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43685</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43606</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44517</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43795</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44294</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44977</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44476</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45050</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45085</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43623</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43644</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43900</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44186</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44286</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44475</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44853</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44874</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44955</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45090</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43655</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43979</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44053</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44321</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44406</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
    